--- a/Models/Prospective_conso/data/Hypotheses_Transport_1D_plus.xlsx
+++ b/Models/Prospective_conso/data/Hypotheses_Transport_1D_plus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin.girard/Documents/Code/Etude/Energy-Alternatives-Planing/Models/Prospective_conso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531A8D6E-6C49-4B44-B65A-361663CF0066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03278BCE-0D93-1D46-890D-6C24DE78C472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="5100" windowWidth="39920" windowHeight="21060" activeTab="3" xr2:uid="{F50204B1-83F4-DA42-A3C5-0BBDF8372860}"/>
+    <workbookView xWindow="6360" yWindow="4600" windowWidth="39920" windowHeight="21060" activeTab="4" xr2:uid="{F50204B1-83F4-DA42-A3C5-0BBDF8372860}"/>
   </bookViews>
   <sheets>
     <sheet name="0D" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="50">
   <si>
     <t>Nom</t>
   </si>
@@ -153,9 +153,6 @@
     <t>date_fin</t>
   </si>
   <si>
-    <t>retrofit_change_total_proportion_surface</t>
-  </si>
-  <si>
     <t>retrofit_change_total_proportion_Mds_voy_km</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>init_Vecteur</t>
+  </si>
+  <si>
+    <t>aerien_international</t>
   </si>
 </sst>
 </file>
@@ -197,7 +197,7 @@
     <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -253,6 +253,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -437,7 +444,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -485,6 +492,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Insatisfaisant" xfId="3" builtinId="27"/>
@@ -507,9 +515,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF3886C6-592D-4A48-8113-BA80E4605153}" name="Tableau1" displayName="Tableau1" ref="A1:AB30" totalsRowShown="0">
-  <autoFilter ref="A1:AB30" xr:uid="{AF3886C6-592D-4A48-8113-BA80E4605153}"/>
-  <tableColumns count="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF3886C6-592D-4A48-8113-BA80E4605153}" name="Tableau1" displayName="Tableau1" ref="A1:AC28" totalsRowShown="0">
+  <autoFilter ref="A1:AC28" xr:uid="{AF3886C6-592D-4A48-8113-BA80E4605153}"/>
+  <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{13C71F1A-3FEF-EB4F-9426-11D8E0F098CB}" name="Categorie"/>
     <tableColumn id="2" xr3:uid="{64C71F86-0495-324C-BC69-8F1AFB074E49}" name="year"/>
     <tableColumn id="3" xr3:uid="{7D2503EC-6A56-784D-A462-97F5F0F1ECB7}" name="VP diesel"/>
@@ -538,6 +546,7 @@
     <tableColumn id="26" xr3:uid="{0D9365A7-BB3D-5B4B-B685-5BB0CE9466CD}" name="Metro_tram" dataCellStyle="Insatisfaisant"/>
     <tableColumn id="27" xr3:uid="{E3D9173F-EE4B-6941-A4B5-F2C164115506}" name="aerien_interne"/>
     <tableColumn id="28" xr3:uid="{B5D96524-0F5F-9A42-84F1-FA38E4B7C7F6}" name="aerien_outre_mer"/>
+    <tableColumn id="29" xr3:uid="{A8619755-CDC1-CA45-A59A-CD0B96B99208}" name="aerien_international"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -840,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779B33ED-9EE9-BB48-B4CA-335F6E62A50A}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -881,14 +890,6 @@
       </c>
       <c r="B4">
         <v>2050</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -911,7 +912,7 @@
         <v>32</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -998,13 +999,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1031,7 +1032,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>2020</v>
@@ -1042,7 +1043,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>2020</v>
@@ -1086,7 +1087,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>2035</v>
@@ -1097,7 +1098,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>2035</v>
@@ -1141,7 +1142,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>2050</v>
@@ -1152,7 +1153,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>2050</v>
@@ -1179,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9039F29E-2202-544B-A034-316D6E6A18F0}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1203,25 +1204,25 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
         <v>42</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" t="s">
-        <v>43</v>
       </c>
       <c r="I1" t="s">
         <v>13</v>
@@ -1253,7 +1254,7 @@
         <v>59</v>
       </c>
       <c r="I2" s="2">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="4"/>
@@ -1287,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="4"/>
@@ -1300,7 +1301,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>0.79200000000000004</v>
@@ -1321,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q4" s="1"/>
     </row>
@@ -1330,7 +1331,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>7.1999999999999995E-2</v>
@@ -1351,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
@@ -1365,9 +1366,6 @@
       <c r="C6">
         <v>1.2331949999999998</v>
       </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>0</v>
       </c>
@@ -1381,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q6" s="1"/>
     </row>
@@ -1454,7 +1452,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>4.1999400000000007</v>
@@ -1484,7 +1482,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10">
         <v>0.37800000000000006</v>
@@ -1670,7 +1668,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16">
         <v>0.13128399999999998</v>
@@ -1730,7 +1728,7 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1847,7 +1845,7 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1978,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>180</v>
+        <v>2160</v>
       </c>
       <c r="I26">
         <v>90</v>
@@ -2007,12 +2005,41 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>400</v>
+        <v>3500</v>
       </c>
       <c r="I27">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>364</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>3500</v>
+      </c>
+      <c r="I28">
         <v>180</v>
       </c>
     </row>
@@ -2023,10 +2050,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62049F2B-59D2-0E49-8A3E-80DFECE0CCA2}">
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AC37" sqref="AC37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2055,7 +2082,7 @@
     <col min="28" max="28" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2140,8 +2167,11 @@
       <c r="AB1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC1" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2165,7 +2195,7 @@
       <c r="K2" s="19"/>
       <c r="L2" s="20"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2187,7 +2217,7 @@
       <c r="K3" s="21"/>
       <c r="L3" s="22"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2207,7 +2237,7 @@
       <c r="K4" s="21"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2227,7 +2257,7 @@
       <c r="K5" s="21"/>
       <c r="L5" s="22"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2247,7 +2277,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>19</v>
       </c>
@@ -2273,7 +2303,7 @@
       <c r="Y7" s="28"/>
       <c r="Z7" s="28"/>
     </row>
-    <row r="8" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>20</v>
       </c>
@@ -2299,7 +2329,7 @@
       <c r="Y8" s="28"/>
       <c r="Z8" s="28"/>
     </row>
-    <row r="9" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>21</v>
       </c>
@@ -2321,7 +2351,7 @@
       <c r="Y9" s="28"/>
       <c r="Z9" s="28"/>
     </row>
-    <row r="10" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>22</v>
       </c>
@@ -2343,7 +2373,7 @@
       <c r="Y10" s="28"/>
       <c r="Z10" s="28"/>
     </row>
-    <row r="11" spans="1:28" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>23</v>
       </c>
@@ -2365,7 +2395,7 @@
       <c r="Y11" s="28"/>
       <c r="Z11" s="28"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2378,7 +2408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2391,7 +2421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2404,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>27</v>
       </c>
@@ -2427,7 +2457,7 @@
       <c r="Y15" s="28"/>
       <c r="Z15" s="28"/>
     </row>
-    <row r="16" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>28</v>
       </c>
@@ -2448,7 +2478,7 @@
       <c r="Y16" s="28"/>
       <c r="Z16" s="28"/>
     </row>
-    <row r="17" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>29</v>
       </c>
@@ -2469,7 +2499,7 @@
       <c r="Y17" s="28"/>
       <c r="Z17" s="28"/>
     </row>
-    <row r="18" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>33</v>
       </c>
@@ -2493,7 +2523,7 @@
       <c r="Y18" s="28"/>
       <c r="Z18" s="28"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2509,7 +2539,7 @@
       <c r="W19" s="8"/>
       <c r="X19" s="9"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2525,7 +2555,7 @@
       <c r="W20" s="11"/>
       <c r="X20" s="12"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2543,7 +2573,7 @@
       </c>
       <c r="X21" s="12"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2558,7 +2588,7 @@
       </c>
       <c r="X22" s="12"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -2573,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:28" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>10</v>
       </c>
@@ -2585,7 +2615,7 @@
       </c>
       <c r="Z24" s="30"/>
     </row>
-    <row r="25" spans="1:28" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
         <v>8</v>
       </c>
@@ -2597,7 +2627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2609,7 +2639,7 @@
       </c>
       <c r="AB26" s="9"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -2618,6 +2648,17 @@
       </c>
       <c r="AA27" s="13"/>
       <c r="AB27" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28">
+        <v>2020</v>
+      </c>
+      <c r="AC28">
         <v>1</v>
       </c>
     </row>
